--- a/pub/Management/WBSbyArea/3.1_Metrics_WBS.xlsx
+++ b/pub/Management/WBSbyArea/3.1_Metrics_WBS.xlsx
@@ -11,11 +11,11 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Rob Gardner - Personal View" guid="{DD283AF2-FEAE-7747-BFB7-787E9794E26C}" mergeInterval="0" personalView="1" xWindow="23" yWindow="101" windowWidth="1080" windowHeight="599" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Brian Bockelman - Personal View" guid="{C2B1A278-F56A-744A-B001-2F0AE65105C7}" mergeInterval="0" personalView="1" xWindow="23" yWindow="68" windowWidth="1080" windowHeight="632" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Chander Sehgal - Personal View" guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="520" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Brian Bockelman - Personal View" guid="{C2B1A278-F56A-744A-B001-2F0AE65105C7}" mergeInterval="0" personalView="1" xWindow="23" yWindow="68" windowWidth="1080" windowHeight="632" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Rob Gardner - Personal View" guid="{DD283AF2-FEAE-7747-BFB7-787E9794E26C}" mergeInterval="0" personalView="1" xWindow="23" yWindow="101" windowWidth="1080" windowHeight="599" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>OSG Display upkeep and maintenance</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>KA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1.2.4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1.3.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -108,14 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Creation of OSG intelligence and key analytics</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -128,10 +112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Communicate interpretations in various forums (reports, blog, newsletter articles)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,20 +195,29 @@
     <t>Bockelman, Gardner</t>
   </si>
   <si>
-    <t>Bockelman, SH</t>
-  </si>
-  <si>
-    <t>Bockelman, AG</t>
-  </si>
-  <si>
     <t>WBS</t>
+  </si>
+  <si>
+    <t>Arunachalam</t>
+  </si>
+  <si>
+    <t>Bockelman, Hayashi</t>
+  </si>
+  <si>
+    <t>Caprez</t>
+  </si>
+  <si>
+    <t>Bockelman, Guru</t>
+  </si>
+  <si>
+    <t>Lockhart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -258,6 +247,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -319,9 +326,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,7 +342,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{05EF07C6-19A1-4C70-B129-F810E17C16E9}" diskRevisions="1" revisionId="324" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{A3BE9AF7-B44E-49E7-8417-520CFA1B7206}" diskRevisions="1" revisionId="333" version="4">
   <header guid="{C48660FA-862D-DD48-B384-58C955607442}" dateTime="2010-07-15T16:04:55" maxSheetId="2" userName="Suchandra Thapa" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -403,13 +413,275 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{A3BE9AF7-B44E-49E7-8417-520CFA1B7206}" dateTime="2010-08-11T14:14:12" maxSheetId="2" userName="Chander Sehgal" r:id="rId15" minRId="325" maxRId="333">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" action="delete"/>
-  <rcv guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" action="add"/>
+  <rfmt sheetId="1" sqref="E11" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="325" sId="1" xfDxf="1" dxf="1">
+    <oc r="E11" t="inlineStr">
+      <is>
+        <t>KA</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>Arunachalam</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="326" sId="1" odxf="1" dxf="1">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Gardner</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="327" sId="1" odxf="1" dxf="1">
+    <oc r="E13" t="inlineStr">
+      <is>
+        <t>BB</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Bockelman</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="328" sId="1" odxf="1" dxf="1">
+    <oc r="E14" t="inlineStr">
+      <is>
+        <t>Bockelman, SH</t>
+      </is>
+    </oc>
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>Bockelman, Hayashi</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="329" sId="1" odxf="1" dxf="1">
+    <oc r="E15" t="inlineStr">
+      <is>
+        <t>AC</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Caprez</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="330" sId="1" odxf="1" dxf="1">
+    <oc r="E16" t="inlineStr">
+      <is>
+        <t>AC</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>Caprez</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="331" sId="1" odxf="1" dxf="1">
+    <oc r="E17" t="inlineStr">
+      <is>
+        <t>Bockelman, AG</t>
+      </is>
+    </oc>
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Bockelman, Guru</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="332" sId="1" odxf="1" dxf="1">
+    <oc r="E18" t="inlineStr">
+      <is>
+        <t>Bockelman, SH</t>
+      </is>
+    </oc>
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>Bockelman, Hayashi</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="333" sId="1" odxf="1" dxf="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>JL</t>
+        <phoneticPr fontId="7" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>Lockhart</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
 </revisions>
 </file>
 
@@ -2349,6 +2621,13 @@
       </fill>
     </ndxf>
   </rcc>
+  <rcv guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" action="delete"/>
   <rcv guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}" action="add"/>
 </revisions>
 </file>
@@ -2679,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75"/>
@@ -2694,19 +2973,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -2714,33 +2993,33 @@
         <v>3.1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
+      <c r="E3" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11">
         <v>38990</v>
@@ -2749,15 +3028,15 @@
         <v>39354</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>38990</v>
@@ -2766,15 +3045,15 @@
         <v>39354</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11">
         <v>38990</v>
@@ -2783,15 +3062,15 @@
         <v>39354</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11">
         <v>38990</v>
@@ -2800,7 +3079,7 @@
         <v>39354</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -2813,15 +3092,15 @@
       <c r="C8" s="8"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11">
         <v>38990</v>
@@ -2830,15 +3109,15 @@
         <v>39354</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11">
         <v>38990</v>
@@ -2847,7 +3126,7 @@
         <v>39354</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
@@ -2863,111 +3142,111 @@
       <c r="D11" s="11">
         <v>39354</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>7</v>
+      <c r="E11" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C12" s="11">
         <v>38990</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>39021</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16" t="s">
-        <v>12</v>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11">
         <v>38990</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>39051</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>49</v>
+      <c r="E14" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11">
         <v>38990</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>39355</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>20</v>
+      <c r="E15" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="11">
         <v>38990</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>39355</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>20</v>
+      <c r="E16" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11">
         <v>38990</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>39355</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>50</v>
+      <c r="E17" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>0</v>
@@ -2975,16 +3254,16 @@
       <c r="C18" s="11">
         <v>38990</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>39355</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>49</v>
+      <c r="E18" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>1</v>
@@ -2992,16 +3271,16 @@
       <c r="C19" s="11">
         <v>38990</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>39355</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>2</v>
@@ -3009,40 +3288,40 @@
       <c r="C20" s="11">
         <v>38990</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>39355</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>21</v>
+      <c r="E20" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}">
-      <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    <customSheetView guid="{DD283AF2-FEAE-7747-BFB7-787E9794E26C}">
+      <selection activeCell="A6" sqref="A6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2B1A278-F56A-744A-B001-2F0AE65105C7}">
-      <selection activeCell="D15" sqref="D15"/>
+    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
+      <selection activeCell="B24" sqref="B24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
-      <selection activeCell="B24" sqref="B24"/>
+    <customSheetView guid="{C2B1A278-F56A-744A-B001-2F0AE65105C7}">
+      <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{DD283AF2-FEAE-7747-BFB7-787E9794E26C}">
-      <selection activeCell="A6" sqref="A6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{2BED93F0-4503-48B1-A17C-ABC955D23A4D}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
